--- a/templates/F-825-145K CMD-H.L00.00C aprevoTLIF-O Final QC Insp.xlsx
+++ b/templates/F-825-145K CMD-H.L00.00C aprevoTLIF-O Final QC Insp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\AI Records\Empty Templates\Fake 825\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ethan Nguyen\Desktop\Compare 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049EFB38-B38B-45F4-98EC-AA7B3893A5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BDFDD2-EBC1-49D5-83DD-52FDDF08434A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -330,9 +330,6 @@
     <t>{{Item 6}}</t>
   </si>
   <si>
-    <t>{{Item 7}}</t>
-  </si>
-  <si>
     <t>{{Item 8}}</t>
   </si>
   <si>
@@ -373,13 +370,16 @@
   </si>
   <si>
     <t>{{Job Number}}</t>
+  </si>
+  <si>
+    <t>{{Item7}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,12 +414,6 @@
     </font>
     <font>
       <i/>
-      <sz val="8"/>
-      <color rgb="FF0070C0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF0070C0"/>
       <name val="Aptos Narrow"/>
@@ -719,7 +713,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -789,24 +783,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -826,33 +802,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -897,16 +846,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -915,11 +864,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -933,10 +894,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -957,23 +933,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1259,7 +1253,7 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:D12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="11.7" x14ac:dyDescent="0.45"/>
@@ -1276,250 +1270,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="6" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="94" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="86" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="88" t="s">
+      <c r="J1" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="89"/>
-      <c r="L1" s="90"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="84"/>
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="93"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="87"/>
     </row>
     <row r="3" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="38" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="88" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="G3" s="92"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="K3" s="92"/>
+      <c r="L3" s="93"/>
+    </row>
+    <row r="4" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="40"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="51" t="s">
+      <c r="D4" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="43"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="96"/>
+    </row>
+    <row r="5" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="43"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="96"/>
+    </row>
+    <row r="6" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="96"/>
+    </row>
+    <row r="7" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="40"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="88" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="43"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="96"/>
+    </row>
+    <row r="8" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="40"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="88" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="96"/>
+    </row>
+    <row r="9" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="88" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="43"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="96"/>
+    </row>
+    <row r="10" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="43"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="96"/>
+    </row>
+    <row r="11" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="99"/>
+    </row>
+    <row r="12" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+      <c r="A12" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="56"/>
+      <c r="C12" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="53"/>
-    </row>
-    <row r="4" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="49"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="56"/>
-    </row>
-    <row r="5" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="56"/>
-    </row>
-    <row r="6" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="56"/>
-    </row>
-    <row r="7" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="46"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="56"/>
-    </row>
-    <row r="8" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="46"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="56"/>
-    </row>
-    <row r="9" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="46"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="56"/>
-    </row>
-    <row r="10" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="56"/>
-    </row>
-    <row r="11" spans="1:12" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="59"/>
-    </row>
-    <row r="12" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="70" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="43"/>
+      <c r="D12" s="90"/>
       <c r="E12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="41"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="79"/>
       <c r="I12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="41"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="79"/>
     </row>
     <row r="13" spans="1:12" s="6" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="60"/>
     </row>
     <row r="14" spans="1:12" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="15" spans="1:12" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.4">
@@ -1550,11 +1544,11 @@
       <c r="I15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="69" t="s">
+      <c r="J15" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
     </row>
     <row r="16" spans="1:12" s="6" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
@@ -1580,11 +1574,11 @@
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="60" t="s">
+      <c r="J16" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
     </row>
     <row r="17" spans="1:12" s="6" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
@@ -1610,11 +1604,11 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="60" t="s">
+      <c r="J17" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="60"/>
-      <c r="L17" s="60"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
     </row>
     <row r="18" spans="1:12" s="6" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
@@ -1640,11 +1634,11 @@
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="60" t="s">
+      <c r="J18" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="60"/>
-      <c r="L18" s="60"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
     </row>
     <row r="19" spans="1:12" s="6" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
@@ -1670,11 +1664,11 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="60" t="s">
+      <c r="J19" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
     </row>
     <row r="20" spans="1:12" s="6" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
@@ -1700,11 +1694,11 @@
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="60" t="s">
+      <c r="J20" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
     </row>
     <row r="21" spans="1:12" s="6" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
@@ -1730,11 +1724,11 @@
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
-      <c r="J21" s="60" t="s">
+      <c r="J21" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
     </row>
     <row r="22" spans="1:12" s="6" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
@@ -1760,11 +1754,11 @@
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="60" t="s">
+      <c r="J22" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
     </row>
     <row r="23" spans="1:12" s="6" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
@@ -1790,11 +1784,11 @@
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="60" t="s">
+      <c r="J23" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="K23" s="60"/>
-      <c r="L23" s="60"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
     </row>
     <row r="24" spans="1:12" s="6" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
@@ -1820,11 +1814,11 @@
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="67" t="s">
+      <c r="J24" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="K24" s="67"/>
-      <c r="L24" s="67"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
     </row>
     <row r="25" spans="1:12" s="6" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
@@ -1850,11 +1844,11 @@
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="67" t="s">
+      <c r="J25" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
     </row>
     <row r="26" spans="1:12" s="6" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
@@ -1880,11 +1874,11 @@
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="67" t="s">
+      <c r="J26" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
     </row>
     <row r="27" spans="1:12" s="6" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
@@ -1910,11 +1904,11 @@
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="67" t="s">
+      <c r="J27" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
     </row>
     <row r="28" spans="1:12" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4"/>
     <row r="29" spans="1:12" s="6" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
@@ -1927,25 +1921,25 @@
       <c r="D29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="78" t="s">
+      <c r="F29" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="78" t="s">
+      <c r="G29" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="48" t="s">
+      <c r="H29" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="48" t="s">
+      <c r="I29" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="48" t="s">
+      <c r="J29" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="K29" s="48" t="s">
+      <c r="K29" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="L29" s="48" t="s">
+      <c r="L29" s="42" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1955,13 +1949,13 @@
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="13"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
     </row>
     <row r="31" spans="1:12" s="6" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="12" t="s">
@@ -1969,25 +1963,25 @@
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="13"/>
-      <c r="F31" s="76" t="s">
+      <c r="F31" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="82">
+      <c r="G31" s="71">
         <v>1</v>
       </c>
-      <c r="H31" s="84">
+      <c r="H31" s="73">
         <v>8</v>
       </c>
-      <c r="I31" s="84">
+      <c r="I31" s="73">
         <v>12</v>
       </c>
-      <c r="J31" s="84">
+      <c r="J31" s="73">
         <v>19</v>
       </c>
-      <c r="K31" s="84">
+      <c r="K31" s="73">
         <v>21</v>
       </c>
-      <c r="L31" s="80" t="s">
+      <c r="L31" s="75" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1997,13 +1991,13 @@
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="13"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="81"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="76"/>
     </row>
     <row r="33" spans="2:12" s="6" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="12"/>
@@ -2011,15 +2005,15 @@
       <c r="D33" s="13"/>
     </row>
     <row r="34" spans="2:12" s="6" customFormat="1" ht="10.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F34" s="68" t="s">
+      <c r="F34" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="53"/>
     </row>
     <row r="35" spans="2:12" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
       <c r="F35" s="21"/>
@@ -2076,16 +2070,16 @@
       <c r="D43" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="61" t="s">
+      <c r="E43" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="62"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="47"/>
+      <c r="L43" s="47"/>
     </row>
     <row r="44" spans="2:12" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
       <c r="B44" s="34" t="s">
@@ -2097,16 +2091,16 @@
       <c r="D44" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E44" s="63" t="s">
+      <c r="E44" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="F44" s="64"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
-      <c r="I44" s="64"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="64"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="49"/>
     </row>
     <row r="45" spans="2:12" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
       <c r="B45" s="8"/>
@@ -2130,16 +2124,16 @@
       <c r="D47" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="65" t="s">
+      <c r="E47" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="66"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="66"/>
-      <c r="L47" s="66"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
     </row>
     <row r="48" spans="2:12" s="6" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B48" s="1" t="s">
@@ -2151,16 +2145,16 @@
       <c r="D48" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="E48" s="67" t="s">
+      <c r="E48" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="67"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
     </row>
     <row r="49" spans="2:12" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
@@ -2172,16 +2166,16 @@
       <c r="D49" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="60" t="s">
+      <c r="E49" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="60"/>
-      <c r="L49" s="60"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="45"/>
     </row>
     <row r="50" spans="2:12" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4">
       <c r="B50" s="1" t="s">
@@ -2193,16 +2187,16 @@
       <c r="D50" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="60" t="s">
+      <c r="E50" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="60"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="60"/>
-      <c r="L50" s="60"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45"/>
     </row>
     <row r="51" spans="2:12" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4"/>
     <row r="52" spans="2:12" s="6" customFormat="1" ht="10.5" x14ac:dyDescent="0.4"/>
@@ -2214,6 +2208,7 @@
     <mergeCell ref="J26:L26"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:L2"/>
+    <mergeCell ref="J3:L11"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="J20:L20"/>
@@ -2228,6 +2223,8 @@
     <mergeCell ref="I29:I30"/>
     <mergeCell ref="J29:J30"/>
     <mergeCell ref="K29:K30"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="F12:H12"/>
     <mergeCell ref="F34:L34"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A12:B12"/>
@@ -2250,14 +2247,11 @@
     <mergeCell ref="E47:L47"/>
     <mergeCell ref="E48:L48"/>
     <mergeCell ref="E49:L49"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="F12:H12"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="A3:B11"/>
     <mergeCell ref="E3:E11"/>
     <mergeCell ref="F3:H11"/>
     <mergeCell ref="I3:I11"/>
-    <mergeCell ref="J3:L11"/>
   </mergeCells>
   <pageMargins left="0.4" right="0.4" top="1" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2649,7 +2643,7 @@
     <row r="66" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="67" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.4" right="0.4" top="1" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
